--- a/SCBAA/2018/Region 10.xlsx
+++ b/SCBAA/2018/Region 10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647C55A1-CAFD-44E7-9ED9-A012950C5B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22A1F9E-F43F-49BC-BA65-EA981E06C70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="1590" windowWidth="13800" windowHeight="12495" firstSheet="5" activeTab="8" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" firstSheet="5" activeTab="5" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Tangub" sheetId="10" r:id="rId1"/>
@@ -27,6 +27,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -266,7 +273,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +502,12 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="18">
@@ -1040,7 +1053,7 @@
     <xf numFmtId="166" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1197,6 +1210,32 @@
     </xf>
     <xf numFmtId="40" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -7549,8 +7588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3C7E2F-6921-492A-994A-2D9F2EE4CA90}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7674,7 +7713,9 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -7683,7 +7724,9 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -7692,7 +7735,9 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="53"/>
+      <c r="E13" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -7701,8 +7746,8 @@
         <v>4</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
+      <c r="E14" s="64">
+        <f>SUM(E11:E13)</f>
         <v>0</v>
       </c>
     </row>
@@ -7713,7 +7758,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="31"/>
+      <c r="E15" s="65"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -7722,7 +7767,9 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="53"/>
+      <c r="E16" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -7731,7 +7778,9 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="53"/>
+      <c r="E17" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -7740,7 +7789,9 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="53"/>
+      <c r="E18" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -7749,8 +7800,8 @@
         <v>6</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
+      <c r="E19" s="64">
+        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>0</v>
       </c>
     </row>
@@ -7761,7 +7812,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="32"/>
+      <c r="E20" s="56"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -7770,7 +7821,9 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="53"/>
+      <c r="E21" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -7779,7 +7832,9 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="53"/>
+      <c r="E22" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -7788,7 +7843,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="18"/>
+      <c r="E23" s="66"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -7797,7 +7852,9 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="23"/>
+      <c r="E24" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -7806,7 +7863,9 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="54"/>
+      <c r="E25" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -7815,7 +7874,9 @@
       <c r="D26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -7824,7 +7885,9 @@
       <c r="D27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="27"/>
+      <c r="E27" s="67">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -7842,7 +7905,9 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="54"/>
+      <c r="E29" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -7851,7 +7916,9 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="23"/>
+      <c r="E30" s="68">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -7860,7 +7927,9 @@
         <v>40</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="23"/>
+      <c r="E31" s="67">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -7869,7 +7938,7 @@
         <v>41</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="32"/>
+      <c r="E32" s="56"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
@@ -7878,7 +7947,9 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="19"/>
+      <c r="E33" s="67">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -7887,7 +7958,9 @@
       <c r="D34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="19"/>
+      <c r="E34" s="67">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
@@ -7896,7 +7969,9 @@
       <c r="D35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="28"/>
+      <c r="E35" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
@@ -7905,7 +7980,9 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="28"/>
+      <c r="E36" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -7914,7 +7991,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="30">
+      <c r="E37" s="64">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>0</v>
       </c>
@@ -7924,7 +8001,7 @@
       <c r="B38" s="12"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="33"/>
+      <c r="E38" s="69"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
@@ -7933,7 +8010,7 @@
       <c r="B39" s="12"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="19"/>
+      <c r="E39" s="67"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -7942,7 +8019,7 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="19"/>
+      <c r="E40" s="67"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -7951,7 +8028,7 @@
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="32"/>
+      <c r="E41" s="56"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -7960,7 +8037,9 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="53"/>
+      <c r="E42" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -7969,7 +8048,9 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="53"/>
+      <c r="E43" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
@@ -7978,7 +8059,9 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="55"/>
+      <c r="E44" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -7987,7 +8070,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="32"/>
+      <c r="E45" s="62"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -7996,7 +8079,9 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="23"/>
+      <c r="E46" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
@@ -8005,7 +8090,9 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="23"/>
+      <c r="E47" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
@@ -8014,7 +8101,9 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="23"/>
+      <c r="E48" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -8023,7 +8112,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="26"/>
+      <c r="E49" s="62"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -8032,7 +8121,9 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="53"/>
+      <c r="E50" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
@@ -8041,7 +8132,9 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="53"/>
+      <c r="E51" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
@@ -8050,7 +8143,9 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="39"/>
+      <c r="E52" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
@@ -8059,7 +8154,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="26"/>
+      <c r="E53" s="62"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -8068,7 +8163,9 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="23"/>
+      <c r="E54" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
@@ -8077,7 +8174,9 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="39"/>
+      <c r="E55" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
@@ -8086,7 +8185,9 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="18"/>
+      <c r="E56" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -8095,7 +8196,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="29"/>
+      <c r="E57" s="56"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -8104,7 +8205,9 @@
       <c r="D58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="53"/>
+      <c r="E58" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
@@ -8113,7 +8216,9 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="53"/>
+      <c r="E59" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
@@ -8122,7 +8227,9 @@
       <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="25"/>
+      <c r="E60" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -8131,7 +8238,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="29"/>
+      <c r="E61" s="70"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -8140,7 +8247,9 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="53"/>
+      <c r="E62" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -8149,7 +8258,9 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="53"/>
+      <c r="E63" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -8158,7 +8269,9 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="36"/>
+      <c r="E64" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
@@ -8167,7 +8280,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="32"/>
+      <c r="E65" s="62"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -8176,7 +8289,9 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="53"/>
+      <c r="E66" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
@@ -8185,7 +8300,9 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="53"/>
+      <c r="E67" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -8194,7 +8311,9 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="53"/>
+      <c r="E68" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
@@ -8203,7 +8322,7 @@
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="36"/>
+      <c r="E69" s="56"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
@@ -8212,7 +8331,9 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="19"/>
+      <c r="E70" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
@@ -8221,7 +8342,9 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="19"/>
+      <c r="E71" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
@@ -8230,7 +8353,9 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="34"/>
+      <c r="E72" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
@@ -8239,7 +8364,7 @@
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="32"/>
+      <c r="E73" s="56"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
@@ -8248,7 +8373,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="19"/>
+      <c r="E74" s="67"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -8257,7 +8382,9 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="53"/>
+      <c r="E75" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -8266,7 +8393,9 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="53"/>
+      <c r="E76" s="67">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
@@ -8275,7 +8404,7 @@
         <v>53</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="19"/>
+      <c r="E77" s="68"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -8284,7 +8413,9 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="53"/>
+      <c r="E78" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
@@ -8293,7 +8424,9 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="53"/>
+      <c r="E79" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
@@ -8302,7 +8435,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="18"/>
+      <c r="E80" s="66"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -8311,7 +8444,9 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="53"/>
+      <c r="E81" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
@@ -8320,7 +8455,9 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="53"/>
+      <c r="E82" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -8329,7 +8466,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="19"/>
+      <c r="E83" s="67"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -8338,7 +8475,9 @@
       <c r="D84" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="34"/>
+      <c r="E84" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
@@ -8347,7 +8486,9 @@
       <c r="D85" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E85" s="34"/>
+      <c r="E85" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
@@ -8356,7 +8497,7 @@
         <v>56</v>
       </c>
       <c r="D86" s="8"/>
-      <c r="E86" s="19"/>
+      <c r="E86" s="67"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
@@ -8365,7 +8506,9 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="53"/>
+      <c r="E87" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
@@ -8374,7 +8517,9 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="53"/>
+      <c r="E88" s="67">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
@@ -8383,7 +8528,7 @@
         <v>51</v>
       </c>
       <c r="D89" s="8"/>
-      <c r="E89" s="19"/>
+      <c r="E89" s="67"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
@@ -8392,7 +8537,9 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="39"/>
+      <c r="E90" s="67">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
@@ -8401,7 +8548,9 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="53"/>
+      <c r="E91" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
@@ -8410,14 +8559,16 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="53"/>
+      <c r="E92" s="67">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D93" s="8"/>
-      <c r="E93" s="35">
+      <c r="E93" s="71">
         <f>SUM(E41:E92)</f>
         <v>0</v>
       </c>
@@ -8429,7 +8580,7 @@
       <c r="B94" s="8"/>
       <c r="C94" s="12"/>
       <c r="D94" s="15"/>
-      <c r="E94" s="19"/>
+      <c r="E94" s="67"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
@@ -8449,7 +8600,9 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="39"/>
+      <c r="E96" s="62">
+        <v>0</v>
+      </c>
       <c r="F96" s="10"/>
       <c r="G96" s="8"/>
       <c r="I96" s="9"/>
@@ -8461,7 +8614,7 @@
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
-      <c r="E97" s="19"/>
+      <c r="E97" s="67"/>
       <c r="F97" s="10"/>
       <c r="G97" s="8"/>
       <c r="H97" s="10"/>
@@ -8473,7 +8626,9 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="39"/>
+      <c r="E98" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
@@ -8481,7 +8636,7 @@
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
-      <c r="E99" s="32"/>
+      <c r="E99" s="56"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
@@ -8489,7 +8644,9 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="37"/>
+      <c r="E100" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
@@ -8497,7 +8654,7 @@
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
-      <c r="E101" s="32"/>
+      <c r="E101" s="56"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
@@ -8505,7 +8662,9 @@
       <c r="D102" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="26"/>
+      <c r="E102" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
@@ -8513,7 +8672,7 @@
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
-      <c r="E103" s="32"/>
+      <c r="E103" s="56"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
@@ -8521,7 +8680,9 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="25"/>
+      <c r="E104" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
@@ -8529,7 +8690,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="32"/>
+      <c r="E105" s="56"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -8537,7 +8698,9 @@
       <c r="D106" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="39"/>
+      <c r="E106" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
@@ -8545,7 +8708,7 @@
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
-      <c r="E107" s="32"/>
+      <c r="E107" s="56"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
@@ -8553,7 +8716,9 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="39"/>
+      <c r="E108" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
@@ -8562,7 +8727,7 @@
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
-      <c r="E109" s="32"/>
+      <c r="E109" s="56"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
@@ -8570,7 +8735,9 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="53"/>
+      <c r="E110" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
@@ -9809,7 +9976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191BD2DF-E051-4277-93AB-C7AB36FD6A7D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
     </sheetView>
   </sheetViews>
@@ -10999,7 +11166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D533712B-5FD4-4158-B8CC-8666A2A98AB3}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>

--- a/SCBAA/2018/Region 10.xlsx
+++ b/SCBAA/2018/Region 10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22A1F9E-F43F-49BC-BA65-EA981E06C70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259BE516-7013-431B-B7BD-DE92A6283DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" firstSheet="5" activeTab="5" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="4" activeTab="8" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Tangub" sheetId="10" r:id="rId1"/>
@@ -1199,18 +1199,6 @@
     <xf numFmtId="4" fontId="10" fillId="0" borderId="3" xfId="82" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1236,6 +1224,18 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -1648,54 +1648,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1709,22 +1709,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="60" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="70" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="61"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2825,8 +2825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34F2253-6815-409D-8F88-1EAF6167736E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,54 +2838,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2899,22 +2899,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="60" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="70" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="61"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2973,7 +2973,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="24">
-        <f>1351378.59+33979302.94</f>
         <v>35330681.530000001</v>
       </c>
     </row>
@@ -2985,7 +2984,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f>SUM(E11:E13)</f>
         <v>746892943.35000002</v>
       </c>
     </row>
@@ -3039,7 +3037,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>1258967637.8700001</v>
       </c>
     </row>
@@ -3230,7 +3227,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>3613234513.6700006</v>
       </c>
     </row>
@@ -3807,7 +3803,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>3172782573.73</v>
       </c>
     </row>
@@ -3982,7 +3977,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -3994,7 +3988,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>3172782573.73</v>
       </c>
     </row>
@@ -4016,8 +4009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C236DA0D-E80F-4060-9CB3-4F8B7D7C3FEC}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4029,54 +4022,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -4090,22 +4083,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="60" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="70" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="61"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -4175,7 +4168,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>50859040</v>
       </c>
     </row>
@@ -4218,7 +4210,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="49">
-        <f>529913+39585</f>
         <v>569498</v>
       </c>
     </row>
@@ -4230,7 +4221,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>23346108</v>
       </c>
     </row>
@@ -4421,7 +4411,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>420206288</v>
       </c>
     </row>
@@ -4998,7 +4987,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>315304840</v>
       </c>
     </row>
@@ -5173,7 +5161,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -5185,7 +5172,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>315304840</v>
       </c>
     </row>
@@ -5207,8 +5193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1959540E-DB3D-4EA6-A1E4-65BF5C6DFF80}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5220,54 +5206,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -5281,22 +5267,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="60" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="70" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="61"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -5366,7 +5352,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>81430650.409999996</v>
       </c>
     </row>
@@ -5409,7 +5394,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="53">
-        <f>5425636.66+19744969.93</f>
         <v>25170606.59</v>
       </c>
     </row>
@@ -5421,7 +5405,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>33990948.859999999</v>
       </c>
     </row>
@@ -5612,7 +5595,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>934931911.65999997</v>
       </c>
     </row>
@@ -6189,7 +6171,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>894872464.16000009</v>
       </c>
     </row>
@@ -6364,7 +6345,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>84051796.930000007</v>
       </c>
     </row>
@@ -6376,7 +6356,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>978924261.09000015</v>
       </c>
     </row>
@@ -6411,54 +6390,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -6472,22 +6451,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="60" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="70" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="61"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -7588,7 +7567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3C7E2F-6921-492A-994A-2D9F2EE4CA90}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
@@ -7601,54 +7580,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -7662,22 +7641,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="60" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="70" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="61"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -7713,7 +7692,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="58">
         <v>0</v>
       </c>
     </row>
@@ -7724,7 +7703,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7735,7 +7714,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7746,7 +7725,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="64">
+      <c r="E14" s="60">
         <f>SUM(E11:E13)</f>
         <v>0</v>
       </c>
@@ -7758,7 +7737,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="65"/>
+      <c r="E15" s="61"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -7767,7 +7746,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7778,7 +7757,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7789,7 +7768,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7800,7 +7779,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="64">
+      <c r="E19" s="60">
         <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>0</v>
       </c>
@@ -7821,7 +7800,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="63">
+      <c r="E21" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7832,7 +7811,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="62">
+      <c r="E22" s="58">
         <v>0</v>
       </c>
     </row>
@@ -7843,7 +7822,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="66"/>
+      <c r="E23" s="62"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -7852,7 +7831,7 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="62">
+      <c r="E24" s="58">
         <v>0</v>
       </c>
     </row>
@@ -7863,7 +7842,7 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="63">
+      <c r="E25" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7874,7 +7853,7 @@
       <c r="D26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E26" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7885,7 +7864,7 @@
       <c r="D27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="67">
+      <c r="E27" s="63">
         <v>0</v>
       </c>
     </row>
@@ -7905,7 +7884,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="63">
+      <c r="E29" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7916,7 +7895,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="64">
         <v>0</v>
       </c>
     </row>
@@ -7927,7 +7906,7 @@
         <v>40</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="67">
+      <c r="E31" s="63">
         <v>0</v>
       </c>
     </row>
@@ -7947,7 +7926,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="67">
+      <c r="E33" s="63">
         <v>0</v>
       </c>
     </row>
@@ -7958,7 +7937,7 @@
       <c r="D34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="67">
+      <c r="E34" s="63">
         <v>0</v>
       </c>
     </row>
@@ -7969,7 +7948,7 @@
       <c r="D35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="62">
+      <c r="E35" s="58">
         <v>0</v>
       </c>
     </row>
@@ -7980,7 +7959,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="65">
+      <c r="E36" s="61">
         <v>0</v>
       </c>
     </row>
@@ -7991,7 +7970,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="64">
+      <c r="E37" s="60">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>0</v>
       </c>
@@ -8001,7 +7980,7 @@
       <c r="B38" s="12"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="69"/>
+      <c r="E38" s="65"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
@@ -8010,7 +7989,7 @@
       <c r="B39" s="12"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="67"/>
+      <c r="E39" s="63"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -8019,7 +7998,7 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="67"/>
+      <c r="E40" s="63"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -8037,7 +8016,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="62">
+      <c r="E42" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8048,7 +8027,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="62">
+      <c r="E43" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8059,7 +8038,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="62">
+      <c r="E44" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8070,7 +8049,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="62"/>
+      <c r="E45" s="58"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -8079,7 +8058,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="62">
+      <c r="E46" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8090,7 +8069,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="62">
+      <c r="E47" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8101,7 +8080,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="62">
+      <c r="E48" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8112,7 +8091,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="62"/>
+      <c r="E49" s="58"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -8121,7 +8100,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="62">
+      <c r="E50" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8132,7 +8111,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="62">
+      <c r="E51" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8143,7 +8122,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="62">
+      <c r="E52" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8154,7 +8133,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="62"/>
+      <c r="E53" s="58"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -8238,7 +8217,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="70"/>
+      <c r="E61" s="66"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -8247,7 +8226,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="62">
+      <c r="E62" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8258,7 +8237,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="62">
+      <c r="E63" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8269,7 +8248,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="62">
+      <c r="E64" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8280,7 +8259,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="62"/>
+      <c r="E65" s="58"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -8289,7 +8268,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="62">
+      <c r="E66" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8300,7 +8279,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="62">
+      <c r="E67" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8311,7 +8290,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="62">
+      <c r="E68" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8331,7 +8310,7 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="70">
+      <c r="E70" s="66">
         <v>0</v>
       </c>
     </row>
@@ -8342,7 +8321,7 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="70">
+      <c r="E71" s="66">
         <v>0</v>
       </c>
     </row>
@@ -8353,7 +8332,7 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="70">
+      <c r="E72" s="66">
         <v>0</v>
       </c>
     </row>
@@ -8373,7 +8352,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="67"/>
+      <c r="E74" s="63"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -8382,7 +8361,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="62">
+      <c r="E75" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8393,7 +8372,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="67">
+      <c r="E76" s="63">
         <v>0</v>
       </c>
     </row>
@@ -8404,7 +8383,7 @@
         <v>53</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="68"/>
+      <c r="E77" s="64"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -8413,7 +8392,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="62">
+      <c r="E78" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8424,7 +8403,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="62">
+      <c r="E79" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8435,7 +8414,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="66"/>
+      <c r="E80" s="62"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -8444,7 +8423,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="62">
+      <c r="E81" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8455,7 +8434,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="62">
+      <c r="E82" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8466,7 +8445,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="67"/>
+      <c r="E83" s="63"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -8475,7 +8454,7 @@
       <c r="D84" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="69">
+      <c r="E84" s="65">
         <v>0</v>
       </c>
     </row>
@@ -8486,7 +8465,7 @@
       <c r="D85" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E85" s="69">
+      <c r="E85" s="65">
         <v>0</v>
       </c>
     </row>
@@ -8497,7 +8476,7 @@
         <v>56</v>
       </c>
       <c r="D86" s="8"/>
-      <c r="E86" s="67"/>
+      <c r="E86" s="63"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
@@ -8506,7 +8485,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="69">
+      <c r="E87" s="65">
         <v>0</v>
       </c>
     </row>
@@ -8517,7 +8496,7 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="67">
+      <c r="E88" s="63">
         <v>0</v>
       </c>
     </row>
@@ -8528,7 +8507,7 @@
         <v>51</v>
       </c>
       <c r="D89" s="8"/>
-      <c r="E89" s="67"/>
+      <c r="E89" s="63"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
@@ -8537,7 +8516,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="67">
+      <c r="E90" s="63">
         <v>0</v>
       </c>
     </row>
@@ -8548,7 +8527,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="62">
+      <c r="E91" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8559,7 +8538,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="67">
+      <c r="E92" s="63">
         <v>0</v>
       </c>
     </row>
@@ -8568,7 +8547,7 @@
         <v>59</v>
       </c>
       <c r="D93" s="8"/>
-      <c r="E93" s="71">
+      <c r="E93" s="67">
         <f>SUM(E41:E92)</f>
         <v>0</v>
       </c>
@@ -8580,7 +8559,7 @@
       <c r="B94" s="8"/>
       <c r="C94" s="12"/>
       <c r="D94" s="15"/>
-      <c r="E94" s="67"/>
+      <c r="E94" s="63"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
@@ -8600,7 +8579,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="62">
+      <c r="E96" s="58">
         <v>0</v>
       </c>
       <c r="F96" s="10"/>
@@ -8614,7 +8593,7 @@
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
-      <c r="E97" s="67"/>
+      <c r="E97" s="63"/>
       <c r="F97" s="10"/>
       <c r="G97" s="8"/>
       <c r="H97" s="10"/>
@@ -8626,7 +8605,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="62">
+      <c r="E98" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8644,7 +8623,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="62">
+      <c r="E100" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8662,7 +8641,7 @@
       <c r="D102" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="62">
+      <c r="E102" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8680,7 +8659,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="62">
+      <c r="E104" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8698,7 +8677,7 @@
       <c r="D106" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="62">
+      <c r="E106" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8716,7 +8695,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="62">
+      <c r="E108" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8735,7 +8714,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="62">
+      <c r="E110" s="58">
         <v>0</v>
       </c>
     </row>
@@ -8778,8 +8757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3945C9B9-B218-4FFB-B4D4-8EC300B4DA81}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="C107" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="C86" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F101" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8791,54 +8770,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -8852,22 +8831,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="60" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="70" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="61"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -8904,7 +8883,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="53">
-        <f>6135165+5960266</f>
         <v>12095431</v>
       </c>
     </row>
@@ -8939,7 +8917,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>45301698</v>
       </c>
     </row>
@@ -8982,7 +8959,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="53">
-        <f>6298114+1878209</f>
         <v>8176323</v>
       </c>
     </row>
@@ -8994,7 +8970,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>34337746</v>
       </c>
     </row>
@@ -9185,7 +9160,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>571959809</v>
       </c>
     </row>
@@ -9525,7 +9499,6 @@
         <v>10</v>
       </c>
       <c r="E70" s="19">
-        <f>17234161+1864892</f>
         <v>19099053</v>
       </c>
     </row>
@@ -9537,7 +9510,6 @@
         <v>11</v>
       </c>
       <c r="E71" s="19">
-        <f>4780813+97744</f>
         <v>4878557</v>
       </c>
     </row>
@@ -9733,7 +9705,6 @@
         <v>57</v>
       </c>
       <c r="E90" s="39">
-        <f>35022794+15717888+61341</f>
         <v>50802023</v>
       </c>
     </row>
@@ -9745,7 +9716,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="53">
-        <f>31201416+2029550+4754340</f>
         <v>37985306</v>
       </c>
     </row>
@@ -9757,7 +9727,6 @@
         <v>50</v>
       </c>
       <c r="E92" s="53">
-        <f>3994682+141500</f>
         <v>4136182</v>
       </c>
     </row>
@@ -9767,7 +9736,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>518861422</v>
       </c>
     </row>
@@ -9942,7 +9910,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -9954,7 +9921,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>518861422</v>
       </c>
     </row>
@@ -9989,54 +9955,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -10050,22 +10016,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="60" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="70" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="61"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -11166,8 +11132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D533712B-5FD4-4158-B8CC-8666A2A98AB3}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11179,54 +11145,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -11240,22 +11206,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="60" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="70" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="61"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -11314,7 +11280,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="53">
-        <f>17526001.77+33844864.38</f>
         <v>51370866.150000006</v>
       </c>
     </row>
@@ -11326,7 +11291,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>73283446.840000004</v>
       </c>
     </row>
@@ -11380,7 +11344,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>167170820.25999999</v>
       </c>
     </row>
@@ -11571,7 +11534,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1181576710.96</v>
       </c>
     </row>
@@ -11617,7 +11579,6 @@
         <v>10</v>
       </c>
       <c r="E42" s="53">
-        <f>143216914.94+13943002.47+2728162.42+9127553.79+19064733.68+50728355.16</f>
         <v>238808722.45999998</v>
       </c>
     </row>
@@ -11629,7 +11590,6 @@
         <v>11</v>
       </c>
       <c r="E43" s="53">
-        <f>32874673.97+14103904.61+348493.69+1975703.81+384827841.22</f>
         <v>434130617.30000001</v>
       </c>
     </row>
@@ -11641,7 +11601,6 @@
         <v>12</v>
       </c>
       <c r="E44" s="55">
-        <f>1359890.47+104080+164582.8+4845502.55</f>
         <v>6474055.8200000003</v>
       </c>
     </row>
@@ -11830,7 +11789,6 @@
         <v>10</v>
       </c>
       <c r="E62" s="53">
-        <f>9309608.96+1859168.86</f>
         <v>11168777.82</v>
       </c>
     </row>
@@ -11842,7 +11800,6 @@
         <v>11</v>
       </c>
       <c r="E63" s="53">
-        <f>3906638+129668.02</f>
         <v>4036306.02</v>
       </c>
     </row>
@@ -11874,7 +11831,6 @@
         <v>10</v>
       </c>
       <c r="E66" s="53">
-        <f>15962484.89+6526307.1+17411757.45+2014477.93+3534497.47</f>
         <v>45449524.839999996</v>
       </c>
     </row>
@@ -11886,7 +11842,6 @@
         <v>11</v>
       </c>
       <c r="E67" s="53">
-        <f>1812431.82+3369232.31+13005465.21+28816.88+2472582.88+693776.8</f>
         <v>21382305.899999999</v>
       </c>
     </row>
@@ -11918,7 +11873,6 @@
         <v>10</v>
       </c>
       <c r="E70" s="19">
-        <f>22292333.53</f>
         <v>22292333.530000001</v>
       </c>
     </row>
@@ -11930,7 +11884,6 @@
         <v>11</v>
       </c>
       <c r="E71" s="19">
-        <f>2069242.45</f>
         <v>2069242.45</v>
       </c>
     </row>
@@ -11942,7 +11895,6 @@
         <v>12</v>
       </c>
       <c r="E72" s="34">
-        <f>59577.77</f>
         <v>59577.77</v>
       </c>
     </row>
@@ -12138,7 +12090,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="53">
-        <f>21871525.61+38748737.23+37200000</f>
         <v>97820262.840000004</v>
       </c>
     </row>
@@ -12159,7 +12110,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>1130635340.1700001</v>
       </c>
     </row>
@@ -12334,7 +12284,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -12346,7 +12295,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1130635340.1700001</v>
       </c>
     </row>
